--- a/hw/2022/badge/prod/V3j/BOM_JLCSMT.xlsx
+++ b/hw/2022/badge/prod/V3j/BOM_JLCSMT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lambert\Nextcloud\Documents\Projects\Hardware\2022\2022-05_NorthSec\prod\V3j\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lambert\Documents\GitHub\nsec-badge-dev\hw\2022\badge\prod\V3j\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8F3E6D-198C-462B-8C27-BB948937DF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25F5600-343B-4A2D-AACA-B5A6A1DC3983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>Comment</t>
   </si>
@@ -72,66 +72,12 @@
     <t>U1</t>
   </si>
   <si>
-    <t>WS28115050</t>
-  </si>
-  <si>
-    <t>C1  C2  C3  C4  C5  C6  C7  C8  C9  C10  C11  C12  C13  C14  C15  C16  C17  C18  C19  C20  C21  C22  C23  C24</t>
-  </si>
-  <si>
-    <t>C29</t>
-  </si>
-  <si>
-    <t>R1  R3  R7  R12</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
-    <t>R5  R6  R8</t>
-  </si>
-  <si>
-    <t>C26  C31</t>
-  </si>
-  <si>
-    <t>C25</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>C32</t>
-  </si>
-  <si>
-    <t>R9  R11</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>SW2</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>LED1  LED2  LED3  LED4  LED5  LED6  LED7  LED8  LED9  LED10  LED11  LED12  LED13  LED14  LED15  LED16  LED17  LED18  LED19  LED20  LED21  LED22  LED23  LED24</t>
-  </si>
-  <si>
-    <t>Q1  Q2</t>
-  </si>
-  <si>
     <t>0.1uF</t>
   </si>
   <si>
@@ -153,45 +99,21 @@
     <t>1uF</t>
   </si>
   <si>
-    <t>4.7K</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
     <t>AP2112-3.3</t>
   </si>
   <si>
     <t>CH340C</t>
   </si>
   <si>
-    <t>DMP2045U</t>
-  </si>
-  <si>
-    <t>ESP32_WROOM32_SKINNY</t>
-  </si>
-  <si>
-    <t>KMR2</t>
-  </si>
-  <si>
     <t>MBR120</t>
   </si>
   <si>
-    <t>MCP73831T-2ACI/OT</t>
-  </si>
-  <si>
     <t>SMF05CT1G</t>
   </si>
   <si>
-    <t>mmbt2222</t>
-  </si>
-  <si>
     <t>C14663</t>
   </si>
   <si>
-    <t>C49678</t>
-  </si>
-  <si>
     <t>C25803</t>
   </si>
   <si>
@@ -210,113 +132,143 @@
     <t>C15849</t>
   </si>
   <si>
-    <t>C28323</t>
-  </si>
-  <si>
-    <t>C23162</t>
-  </si>
-  <si>
-    <t>C1779</t>
-  </si>
-  <si>
-    <t>C23179</t>
-  </si>
-  <si>
     <t>C150742</t>
   </si>
   <si>
     <t>C84681</t>
   </si>
   <si>
-    <t>C700955</t>
-  </si>
-  <si>
-    <t>C82899</t>
-  </si>
-  <si>
-    <t>C269272</t>
-  </si>
-  <si>
     <t>C130880</t>
   </si>
   <si>
-    <t>C424093</t>
-  </si>
-  <si>
     <t>C84256</t>
   </si>
   <si>
     <t>C558443</t>
   </si>
   <si>
-    <t>C114584</t>
-  </si>
-  <si>
-    <t>C8512</t>
-  </si>
-  <si>
-    <t>C27  C28  C30</t>
-  </si>
-  <si>
     <t>RED</t>
   </si>
   <si>
-    <t>D1  D3  D5  D6</t>
-  </si>
-  <si>
-    <t>C-EUC0603</t>
-  </si>
-  <si>
-    <t>CAP_CERAMIC0805-NOOUTLINE</t>
-  </si>
-  <si>
-    <t>RESISTOR_0603_NOOUT</t>
-  </si>
-  <si>
-    <t>R2  R10  R13  R14  R17  R18  R19</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>C78284</t>
-  </si>
-  <si>
-    <t>CAP_CERAMIC0603_NO</t>
-  </si>
-  <si>
-    <t>VREG_SOT23-5</t>
-  </si>
-  <si>
-    <t>MOSFET-NCHANNELSMD</t>
-  </si>
-  <si>
-    <t>MOSFET-P</t>
-  </si>
-  <si>
-    <t>SWITCH_TACT_SMT4.6X2.8</t>
-  </si>
-  <si>
-    <t>DIODE-SCHOTTKYSOD-123</t>
-  </si>
-  <si>
-    <t>MCP73831/2</t>
-  </si>
-  <si>
-    <t>LED0805_NOOUTLINE</t>
-  </si>
-  <si>
-    <t>TRANSISTOR_NPNSOT23-3</t>
-  </si>
-  <si>
-    <t>BSS138</t>
+    <t>C23138</t>
+  </si>
+  <si>
+    <t>C32180</t>
+  </si>
+  <si>
+    <t>C14877</t>
+  </si>
+  <si>
+    <t>C318884</t>
+  </si>
+  <si>
+    <t>C965555</t>
+  </si>
+  <si>
+    <t>0603-CAP</t>
+  </si>
+  <si>
+    <t>0603-NO</t>
+  </si>
+  <si>
+    <t>AMPHENOL_10118192-0002LF</t>
+  </si>
+  <si>
+    <t>0603-RES</t>
+  </si>
+  <si>
+    <t>0805-NO</t>
+  </si>
+  <si>
+    <t>RESONATOR-SMD-1:1</t>
+  </si>
+  <si>
+    <t>SOT23-5</t>
+  </si>
+  <si>
+    <t>TQFP32-08</t>
+  </si>
+  <si>
+    <t>SOIC127P600X180-16N</t>
+  </si>
+  <si>
+    <t>TACTILE_SWITCH_SMD_5.2MM</t>
+  </si>
+  <si>
+    <t>SOD-123</t>
+  </si>
+  <si>
+    <t>CHIPLED_0805_NOOUTLINE</t>
+  </si>
+  <si>
+    <t>SOT65P210X110-6N</t>
+  </si>
+  <si>
+    <t>LED_WS2812-2020</t>
+  </si>
+  <si>
+    <t>C1  C2  C3  C4  C5  C6  C7  C8  C9  C10  C11  C12  C13  C14  C15  C16  C17  C18  C19  C20</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>R13  R14</t>
+  </si>
+  <si>
+    <t>C21  C26</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>S2 S3 S5 S6 S7 S4</t>
+  </si>
+  <si>
+    <t>D3  D4</t>
+  </si>
+  <si>
+    <t>D1  D2  D5</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>U3  U4  U9  U10  U11  U12  U13  U14  U15  U16  U17  U18  U19  U20  U21  U22</t>
+  </si>
+  <si>
+    <t>330r</t>
+  </si>
+  <si>
+    <t>8/16/20MHz</t>
+  </si>
+  <si>
+    <t>ATMEGA328</t>
+  </si>
+  <si>
+    <t>BTN</t>
+  </si>
+  <si>
+    <t>WS2812-2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -348,34 +300,16 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="PingFangSC, PingFangSC-Semibold"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor theme="9" tint="0.59999389629810485"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor theme="9" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -398,41 +332,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -448,27 +354,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,16 +704,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="26" style="2" customWidth="1"/>
-    <col min="2" max="2" width="53.25" style="13" customWidth="1"/>
+    <col min="2" max="2" width="53.25" style="6" customWidth="1"/>
     <col min="3" max="3" width="36.125" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
   </cols>
@@ -830,7 +722,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -840,340 +732,242 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="42">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="14.25">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="D12" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="8" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="D14" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="6" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="5" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="9" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="5">
-        <v>470</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15">
-      <c r="A22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
